--- a/content/SEMANTICS24_PD_titles_authors.xlsx
+++ b/content/SEMANTICS24_PD_titles_authors.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="59">
   <si>
     <t>Timestamp</t>
   </si>
@@ -125,6 +125,69 @@
   </si>
   <si>
     <t>Beatriz Esteves, IDLab, Department of Electronics and Information Systems, Ghent University - imec, Ghent, Belgium</t>
+  </si>
+  <si>
+    <t>Meaningfy</t>
+  </si>
+  <si>
+    <t>Dr. rer. nat.</t>
+  </si>
+  <si>
+    <t>Mohamed Ahmed Sherif</t>
+  </si>
+  <si>
+    <t>GECKO: A Question Answering System for Official Statistics</t>
+  </si>
+  <si>
+    <t>Lucas Lageweg (Statistics Netherlands)</t>
+  </si>
+  <si>
+    <t>Continuous Knowledge Graph Quality Assessment through Comparison using ABECTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data-Sovereign Enterprise Collaboration using the Solid Protocol </t>
+  </si>
+  <si>
+    <t>Thorsten Kastner</t>
+  </si>
+  <si>
+    <t>NFDI4DSO: Towards a BFO Compliant Ontology for Data Science</t>
+  </si>
+  <si>
+    <t>Genet Asefa Gesese, FIZ Karlsruhe, Leibniz Institute for Information Infrastructure &amp; KIT Karlsruhe</t>
+  </si>
+  <si>
+    <t>Unveiling SHACL Security Issues: Data Leakage and Validation Bypass</t>
+  </si>
+  <si>
+    <t>CHIEM DAO Davan - Uliège</t>
+  </si>
+  <si>
+    <t>Lucas Lageweg (Centraal Bureau voor de Statistiek; Universiteit van Amsterdam)</t>
+  </si>
+  <si>
+    <t>Post-Hoc Insights: Natural-Language Explanations for AI-Enhanced/-Integrated Software Systems</t>
+  </si>
+  <si>
+    <t>Dennis Schiese (University of applied sciences Leipzig)</t>
+  </si>
+  <si>
+    <t>Towards Visual Federated SPARQL Queries</t>
+  </si>
+  <si>
+    <t>Kārlis Čerāns, Institute of Mathematics and Computer Science, University of Latvia</t>
+  </si>
+  <si>
+    <t>Facilitating Search of the Virtual Record Treasury of Ireland Knowledge Graph using ChatGPT</t>
+  </si>
+  <si>
+    <t>Alex Randles; ADAPT Centre, Trinity College Dublin</t>
+  </si>
+  <si>
+    <t>SAKE: A Semantic Authoring and Annotation Tool for Knowledge Extraction</t>
+  </si>
+  <si>
+    <t>Jan Grau, University of St. Gallen</t>
   </si>
 </sst>
 </file>
@@ -391,7 +454,8 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.88"/>
+    <col customWidth="1" min="1" max="1" width="18.88"/>
+    <col customWidth="1" min="2" max="2" width="14.63"/>
     <col customWidth="1" min="3" max="3" width="88.25"/>
     <col customWidth="1" min="4" max="11" width="18.88"/>
   </cols>
@@ -691,6 +755,210 @@
         <v>37</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>45510.82269263889</v>
+      </c>
+      <c r="B20" s="3">
+        <v>182.0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>45511.56604976852</v>
+      </c>
+      <c r="B21" s="3">
+        <v>166.0</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>45511.96961644676</v>
+      </c>
+      <c r="B22" s="3">
+        <v>181.0</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>45512.42837234953</v>
+      </c>
+      <c r="B23" s="3">
+        <v>154.0</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>45516.543729212965</v>
+      </c>
+      <c r="B24" s="3">
+        <v>161.0</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>45516.54938766204</v>
+      </c>
+      <c r="B25" s="3">
+        <v>180.0</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>45516.60862131944</v>
+      </c>
+      <c r="B26" s="3">
+        <v>172.0</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>45516.62455523148</v>
+      </c>
+      <c r="B27" s="3">
+        <v>181.0</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>45516.76856820602</v>
+      </c>
+      <c r="B28" s="3">
+        <v>187.0</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>45516.864721087964</v>
+      </c>
+      <c r="B29" s="3">
+        <v>184.0</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2">
+        <v>45516.89887244213</v>
+      </c>
+      <c r="B30" s="3">
+        <v>170.0</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>45516.940309537036</v>
+      </c>
+      <c r="B31" s="3">
+        <v>176.0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/content/SEMANTICS24_PD_titles_authors.xlsx
+++ b/content/SEMANTICS24_PD_titles_authors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repo\websites\2024-semantics-org.github.io\content\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\br\2024-semantics-org.github.io\content\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0945CA-C56E-43A9-BE17-4BB9EB9F22BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E51AEC3-0D8B-49FD-B3AD-8DC726EB8170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -142,9 +142,6 @@
     <t>Data-Sovereign Enterprise Collaboration using the Solid Protocol</t>
   </si>
   <si>
-    <t>Thorsten Kastner, International Audio Laboratories Erlangen, Erlangen, Germany</t>
-  </si>
-  <si>
     <t>PCFWebUI: Data-driven WebUI for holistic decarbonization based on PCF-Tracking</t>
   </si>
   <si>
@@ -191,6 +188,9 @@
   </si>
   <si>
     <t>Lucas Lageweg, Centraal Bureau voor de Statistiek, Universiteit van Amsterdam</t>
+  </si>
+  <si>
+    <t>Thorsten Kastner, DATEV eG, Nuremberg, Germany</t>
   </si>
 </sst>
 </file>
@@ -249,7 +249,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -469,18 +469,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="88.28515625" customWidth="1"/>
-    <col min="4" max="11" width="18.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="86.109375" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="70.6640625" customWidth="1"/>
+    <col min="6" max="11" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,13 +499,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45506.94660354167</v>
       </c>
@@ -520,7 +522,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45506.984187905095</v>
       </c>
@@ -537,7 +539,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45507.124925173615</v>
       </c>
@@ -554,7 +556,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45507.802032430554</v>
       </c>
@@ -568,10 +570,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45508.835116076385</v>
       </c>
@@ -579,16 +581,16 @@
         <v>166</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45508.91560226852</v>
       </c>
@@ -602,10 +604,10 @@
         <v>14</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45509.275177546297</v>
       </c>
@@ -622,7 +624,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45509.391282939818</v>
       </c>
@@ -636,10 +638,10 @@
         <v>14</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45509.419363819441</v>
       </c>
@@ -656,7 +658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45509.461725474539</v>
       </c>
@@ -670,10 +672,10 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45509.659784456016</v>
       </c>
@@ -690,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45509.730139791667</v>
       </c>
@@ -707,7 +709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45510.667296284722</v>
       </c>
@@ -715,16 +717,16 @@
         <v>153</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45510.822692638889</v>
       </c>
@@ -738,10 +740,10 @@
         <v>6</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45511.566049768517</v>
       </c>
@@ -758,7 +760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45512.428372349532</v>
       </c>
@@ -772,10 +774,10 @@
         <v>6</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45516.543729212965</v>
       </c>
@@ -789,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45516.549387662038</v>
       </c>
@@ -806,10 +808,10 @@
         <v>6</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45516.608621319443</v>
       </c>
@@ -823,10 +825,10 @@
         <v>6</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45516.624555231479</v>
       </c>
@@ -840,10 +842,10 @@
         <v>6</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45516.768568206018</v>
       </c>
@@ -860,7 +862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45516.864721087964</v>
       </c>
@@ -874,10 +876,10 @@
         <v>6</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45516.898872442129</v>
       </c>
@@ -891,10 +893,10 @@
         <v>6</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45516.940309537036</v>
       </c>
@@ -911,7 +913,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45516.940309537036</v>
       </c>
@@ -925,12 +927,12 @@
         <v>6</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
